--- a/Unit_Test_cases_5.6.xlsx
+++ b/Unit_Test_cases_5.6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Deals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Deals\5.6\Deal-Ingestion-Deal_5.6-df2badb4ed1695201a57d879297ff86844c645c1\Deal-Ingestion-Deal_5.6-df2badb4ed1695201a57d879297ff86844c645c1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AAFF3F-7072-4FD6-BEAB-D51A4F2BA733}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE36503A-F832-46A8-8F8D-0465FF6A24F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A78C99E4-258B-4D8C-9242-2A4BA1ACE054}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">select * from tmp_custom_delta4 where TNATIONCODE &lt;&gt; 'US' </t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>0110272040~1~4295894740~4295894740~4295894740~4295894740~4295894740~4295894740~~~~5000013617~5000013617~5000013617</t>
+  </si>
+  <si>
+    <t>To check NULL LICFlag</t>
+  </si>
+  <si>
+    <t>select * from [tmp_LicFlagErrorData]</t>
+  </si>
+  <si>
+    <t>Null flag that is not present in DLVarcharData will get populated in tmp_LicFlagErrorData</t>
   </si>
 </sst>
 </file>
@@ -504,6 +513,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6466667</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>161810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10A1ED1-F219-40B3-B1B9-6F3E24C225EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27051000"/>
+          <a:ext cx="6466667" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3619048</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>171333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E790403-B5E1-4767-8DC3-07D21D3294BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28194000"/>
+          <a:ext cx="3619048" cy="933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -804,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9DEFB7-5E6A-456B-AC78-FB5810ED04EE}">
-  <dimension ref="A2:C116"/>
+  <dimension ref="A2:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,6 +1085,24 @@
         <v>18</v>
       </c>
     </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
